--- a/branches/master/StructureDefinition-standard-variable.xlsx
+++ b/branches/master/StructureDefinition-standard-variable.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T15:29:27+00:00</t>
+    <t>2022-07-27T16:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-standard-variable.xlsx
+++ b/branches/master/StructureDefinition-standard-variable.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="103">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T16:10:03+00:00</t>
+    <t>2022-07-27T16:26:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,21 +279,11 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -309,22 +299,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>variableName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variableName :  Mapped Standard Variable Name </t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Extension.extension.id</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension.url</t>
+    <t>Extension.url</t>
   </si>
   <si>
     <t xml:space="preserve">uri
@@ -340,30 +315,20 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Extension.extension.value[x]</t>
+    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>Value of extension</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
 </sst>
 </file>
@@ -676,7 +641,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -685,9 +650,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.84765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -1039,14 +1004,14 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>74</v>
@@ -1058,17 +1023,15 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>91</v>
-      </c>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>74</v>
@@ -1105,19 +1068,19 @@
         <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>75</v>
@@ -1132,22 +1095,20 @@
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>80</v>
@@ -1162,22 +1123,24 @@
         <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="R5" t="s" s="2">
         <v>74</v>
@@ -1219,22 +1182,22 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
@@ -1265,10 +1228,10 @@
         <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1319,7 +1282,7 @@
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
@@ -1331,514 +1294,10 @@
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="L7" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="R8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="R10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/branches/master/StructureDefinition-standard-variable.xlsx
+++ b/branches/master/StructureDefinition-standard-variable.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T16:26:41+00:00</t>
+    <t>2022-08-01T20:41:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
